--- a/uploads/temp.xlsx
+++ b/uploads/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C4B1A-A69F-41AD-8F70-A290057652C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEDD49B-7DE4-47D3-9D9C-BEDC5ED87D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D222392-B557-4890-9973-29DC9B3CCF33}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>V Nivas Chowdary</t>
+    <t>Naresh V</t>
   </si>
   <si>
-    <t>Sunnysnivas@gmail.com</t>
-  </si>
-  <si>
-    <t>asdf</t>
+    <t>nareshV@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -78,10 +75,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,8 +401,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="2" max="3" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -416,14 +411,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="C1" s="1">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{E469E1A5-6103-4E1D-850A-D7A3A18028D9}"/>
-    <hyperlink ref="C1" r:id="rId2" display="\\" xr:uid="{3299D5FA-A050-4982-A59F-CD503F0BBED0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
